--- a/motorcontoller/KiCad/motorcontrol/motorcontrol.xlsx
+++ b/motorcontoller/KiCad/motorcontrol/motorcontrol.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\prima innotech\motorcontoller\KiCad\motorcontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16163B7-DFAA-4676-8168-E111164F8C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57407DC0-81D1-4A81-9024-5D563ABF446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336"/>
+    <workbookView xWindow="5760" yWindow="2148" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motorcontrol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Source:</t>
   </si>
@@ -76,12 +89,6 @@
     <t>Arduino_Uno_R4_Minima_Shield</t>
   </si>
   <si>
-    <t>PCM_arduino-library:Arduino_Uno_R4_Minima_Shield</t>
-  </si>
-  <si>
-    <t>Shield for Arduino Uno R4 Minima</t>
-  </si>
-  <si>
     <t>C1, C2, C11, C12, C18, C23, C24</t>
   </si>
   <si>
@@ -130,15 +137,9 @@
     <t>D1, D2, D3</t>
   </si>
   <si>
-    <t>1N4001</t>
-  </si>
-  <si>
     <t>Diode_THT:D_DO-41_SOD81_P10.16mm_Horizontal</t>
   </si>
   <si>
-    <t>50V 1A General Purpose Rectifier Diode, DO-41</t>
-  </si>
-  <si>
     <t>IC1, IC2, IC6, IC7, IC10, IC11</t>
   </si>
   <si>
@@ -239,12 +240,42 @@
   </si>
   <si>
     <t>Robu</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Electronics Comp</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>1N4007</t>
+  </si>
+  <si>
+    <t>1000V 1A General Purpose Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Arduino_Uno_R4_Minima</t>
+  </si>
+  <si>
+    <t>PCM_arduino-library:Arduino_Uno_R4_Minima</t>
+  </si>
+  <si>
+    <t>Arduino Uno R4 Minima which will be brain for the system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,9 +753,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1099,19 +1131,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="87.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="64.5546875" customWidth="1"/>
+    <col min="6" max="6" width="142.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1165,7 @@
         <v>45364.41134259259</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1151,33 +1189,39 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1188,329 +1232,757 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <v>1399</v>
+      </c>
+      <c r="I7">
+        <f>H7*B7</f>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8">
+        <f>H8*B8</f>
+        <v>15.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I24" si="0">H9*B9</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <v>98.77</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>592.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <v>67.81</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>203.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>400.89</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1202.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <v>68.89</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <v>955.33</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>5731.9800000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>755.3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>755.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <f>SUM(I7:I24)</f>
+        <v>10191.89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B69188941FC35D478DE06D791927575D" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb8c3ca8d350d190d2d4d741573b1f79">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a00399a-4a47-43b4-8f66-06893cc9ad5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3c67de286cbb8554463a3d5efab2944" ns3:_="">
+    <xsd:import namespace="0a00399a-4a47-43b4-8f66-06893cc9ad5f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0a00399a-4a47-43b4-8f66-06893cc9ad5f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="16" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0a00399a-4a47-43b4-8f66-06893cc9ad5f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771596DD-B2E1-4388-BDE6-EE1620B86163}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a00399a-4a47-43b4-8f66-06893cc9ad5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A5AB963-0D0B-4CE6-B28C-8B12555E6C8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0a00399a-4a47-43b4-8f66-06893cc9ad5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181E6C43-B638-4360-AC04-EDCB4A338290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>